--- a/diagram/head_&_legs.xlsx
+++ b/diagram/head_&_legs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Agiat_Ikazinat\Agiat_Ikazinat\diagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE997BA9-BCA9-43F8-90DF-AFA8824E8274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5BBEEE-849F-4ECB-A8DB-1301D683AD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31350" yWindow="2100" windowWidth="21600" windowHeight="11235" xr2:uid="{252522C9-A19E-488B-90A9-38290CEECCCA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{252522C9-A19E-488B-90A9-38290CEECCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>left_side_ankle</t>
   </si>
@@ -126,6 +126,18 @@
   </si>
   <si>
     <t>neck</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>Turn left</t>
+  </si>
+  <si>
+    <t>Turn right</t>
   </si>
 </sst>
 </file>
@@ -532,7 +544,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,7 +619,19 @@
         <v>26</v>
       </c>
       <c r="K2">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2">
+        <v>180</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -630,7 +654,7 @@
         <v>24</v>
       </c>
       <c r="K3">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -653,7 +677,19 @@
         <v>28</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>55</v>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4">
+        <v>120</v>
+      </c>
+      <c r="O4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -676,7 +712,7 @@
         <v>25</v>
       </c>
       <c r="K5">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -699,7 +735,7 @@
         <v>27</v>
       </c>
       <c r="K6">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -722,7 +758,7 @@
         <v>29</v>
       </c>
       <c r="K7">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">

--- a/diagram/head_&_legs.xlsx
+++ b/diagram/head_&_legs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Agiat_Ikazinat\Agiat_Ikazinat\diagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5BBEEE-849F-4ECB-A8DB-1301D683AD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B056E5-1EE1-476C-A4F1-462D7F9A43EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{252522C9-A19E-488B-90A9-38290CEECCCA}"/>
+    <workbookView xWindow="38280" yWindow="1590" windowWidth="19365" windowHeight="11235" xr2:uid="{252522C9-A19E-488B-90A9-38290CEECCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>left_side_ankle</t>
   </si>
@@ -138,6 +138,18 @@
   </si>
   <si>
     <t>Turn right</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>tilt left</t>
+  </si>
+  <si>
+    <t>tile right</t>
   </si>
 </sst>
 </file>
@@ -544,7 +556,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -737,6 +749,18 @@
       <c r="K6">
         <v>6</v>
       </c>
+      <c r="L6">
+        <v>70</v>
+      </c>
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6">
+        <v>157</v>
+      </c>
+      <c r="O6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -759,6 +783,18 @@
       </c>
       <c r="K7">
         <v>7</v>
+      </c>
+      <c r="L7">
+        <v>35</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7">
+        <v>127</v>
+      </c>
+      <c r="O7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
